--- a/H_BimNote/파라미터사전수정/dd.xlsx
+++ b/H_BimNote/파라미터사전수정/dd.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Family List" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Family List" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,12 +436,12 @@
   <cols>
     <col width="5" customWidth="1" min="1" max="1"/>
     <col width="17" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="13" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="32" customWidth="1" min="4" max="4"/>
     <col width="9" customWidth="1" min="5" max="5"/>
     <col width="6" customWidth="1" min="6" max="6"/>
     <col width="9" customWidth="1" min="7" max="7"/>
-    <col width="27" customWidth="1" min="8" max="8"/>
+    <col width="65" customWidth="1" min="8" max="8"/>
     <col width="11" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
@@ -509,110 +509,245 @@
     </row>
     <row r="4">
       <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>1.Floors</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Room Name</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Q0.1</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr"/>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2.Roofs</t>
-        </is>
-      </c>
+          <t>1.Floors</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr"/>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>3.Walls_Ext</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1.1</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>H_FL_AR S17_RC Slab</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
-          <t>내측 Plaster+마감 : Room에서 산출</t>
+          <t>*RC Roof Slab 포함
+*SOG는 Foundation Family 적용</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Q1.1</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr"/>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>4.Walls_Int</t>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1.2</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>H_FL_AR S17_RC Slab_Deck</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Q1.2</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>5.St_Fdn</t>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1.3</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>H_FL_AR S05_Grating</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Q1.3</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr"/>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>6.St_Col</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1.4</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>H_FL_AR S07_Chk. PL</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Q1.4</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr"/>
       <c r="B10" t="inlineStr">
         <is>
-          <t>7.St_Framing</t>
+          <t>2.Roofs</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>8.Ceilings</t>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2.1</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>H_RF_AR B05_Roof Panel-SW</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">*Roof Panel - Sandwich </t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Q2.1</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr"/>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>9.Doors</t>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2.2</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>H_RF_AR B05_Roof Panel-SG</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>*Roof Panel - Single Sheet</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Q2.2</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr"/>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>10.Windows</t>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2.3</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>H_RF_AR B06_RC Roof Finish</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>*RC Roof의 마감 Only (Roof RC Slab는 Floor Category 적용)</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Q2.3</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr"/>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>11.Stairs</t>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2.4</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>H_RF_AR B07_Gutter</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Q2.4</t>
         </is>
       </c>
     </row>
@@ -620,33 +755,1833 @@
       <c r="A15" t="inlineStr"/>
       <c r="B15" t="inlineStr">
         <is>
-          <t>12.Railings</t>
+          <t>3.Walls_Ext</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>내측 Plaster+마감 : Room에서 산출</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr"/>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>13.Generic</t>
-        </is>
-      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> *****</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>&lt; Cavity Wall&gt;</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr"/>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>14.Manual_Input</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>3.1</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>H_WA_AR B02_Ext Wall DY-IN-MA</t>
+        </is>
+      </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
+          <t>*Gypsum(in) + Insulation + Masory(out) + Outer Plaster</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Q3.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr"/>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>3.2</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>H_WA_AR B02_Ext Wall MA-IN-MA</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>*Masonry(in) + Insulation + Masory(out) + Outer Plaster</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Q3.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr"/>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>3.3</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>H_WA_AR B02_Ext Wall MA-IN</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>*Masonry (in)+ Insulation : RC Wall에 추가 되는 벽체
+(RC Wall은 분리 모델링)</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Q3.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr"/>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>******</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>&lt; Single Wall&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr"/>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>3.4</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>H_WA_AR B02_Ext Wall RC-AG</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>*Parapet-내측 Paint 추가 고려 필요</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Q3.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr"/>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>3.5</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>H_WA_AR B02_Ext Wall RC-UG</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>*지하실 외벽 - 내부 마감은 Room에서 산출</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Q3.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr"/>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>3.6</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>H_WA_AR B02_Ext Wall-MA</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>*Masonry + Outer Plaster</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Q3.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr"/>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>3.7</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>H_WA_AR B02_Ext Wall DY-IN</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>*Gypsum (One Side)+ Insulation : RC Wall에 추가 되는 벽체</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Q3.7</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr"/>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>H_WA_AR B02_Ext Wall-Fence</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Q3.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr"/>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>H_WA_AR B02_Ext Wall Panel-SW</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Q3.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr"/>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>H_WA_AR B02_Ext Wall Panel-SG</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Q3.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr"/>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>4.Walls_Int</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr"/>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>H_WA_AR B02_Int Wall DW</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>*Both Side Gysum + Insulation + Fire Rating</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Q4.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr"/>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>H_WA_AR B02_Int Wall DW-IN-MA</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">*One Side Gypsum + Insulation + Masory </t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Q4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr"/>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>H_WA_AR B02_Int Wall MA</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>*양측 Plaster + 마감 : Room에서 산출</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Q4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr"/>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>H_WA_AR B02_Int Wall RC-AG</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Q4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr"/>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>5.St_Fdn</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr"/>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>5.1</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>H_SF_AR S18_MAT</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>*건물 Mat 기초, 터파기 있는 기계기초</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Q5.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr"/>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>5.2</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>H_SF_AR B01_Mass</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>*Mass 기계기초(수화열관리 대상)</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Q5.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr"/>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>5.3</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>H_SF_AR B01_EQ Fdn</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>*터파기 없는 기계기초</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Q5.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr"/>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>5.4</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>H_SF_AR S17_SOG</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>*GL 상부, 하부 구분 없이 전체 UG로 적용</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Q5.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr"/>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>5.5</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>H_SF_AR S17_Trench FL</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>*UG Trench &amp; Pit 바닥 슬라브</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Q5.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr"/>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>5.6</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>H_SF_AR S18_Wall Fdn</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>*UG 줄기초</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Q5.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr"/>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>5.7</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>H_SF_AR S18_Rect Fdn</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>*UG 사각형 독립기초 / 파일기초(파일은 별도 모델링)</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Q5.7</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr"/>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>5.8</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>H_SF_AR S19_Pile</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>*Pile 별도 모델링</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Q5.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr"/>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>6.St_Col</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr"/>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>6.1</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>H_SC_AR S15_UG Ped</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>*UG RC Pedestal (Anchor Bolt - 매개변수에 수량입력)</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Q6.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr"/>
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>6.2</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>H_SC_AR S15_RC Col-AG</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>AG RC Column</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Q6.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr"/>
+      <c r="B45" t="inlineStr"/>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>6.3</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>H_SC_AR S01_St Col-EH</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Steel Column - Extra Heavy</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Q6.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr"/>
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>6.4</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>H_SC_AR S01_St Col-HV</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Steel Column - Heavy</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Q6.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr"/>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>6.5</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>H_SC_AR S01_St Col-MD</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Steel Column - Medium</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>Q6.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr"/>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>6.6</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>H_SC_AR S01_St Col-LG</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Steel Column - Light</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Q6.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr"/>
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>6.7</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>H_SC_AR S01_St Col-EL</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Steel Column - Extra Light</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Q6.7</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr"/>
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>6.8</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>H_SC_AR S01_St Col-BH-EH</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Steel Built up Column - Extra Heavy</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Q6.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr"/>
+      <c r="B51" t="inlineStr"/>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>6.9</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>H_SC_AR S01_St Col-BH-HV</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Steel Built up Column - Heavy</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Q6.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr"/>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>7.St_Framing</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr"/>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>7.1</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>H_SB_AR S16_TG-UG</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>UG RC Tie Girder</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>Q7.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr"/>
+      <c r="B54" t="inlineStr"/>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>7.2</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>H_SB_AR S16_RC Beam-AG</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>AG RC Beam &amp; Girder</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>Q7.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr"/>
+      <c r="B55" t="inlineStr"/>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>7.3</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>H_SB_AR S02_St Beam-EH</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Steel Beam &amp; Girder</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>Q7.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr"/>
+      <c r="B56" t="inlineStr"/>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>7.4</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>H_SB_AR S02_St Beam-HV</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Steel Beam &amp; Girder</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>Q7.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr"/>
+      <c r="B57" t="inlineStr"/>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>7.5</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>H_SB_AR S02_St Beam-MD</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Steel Beam &amp; Girder</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>Q7.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr"/>
+      <c r="B58" t="inlineStr"/>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>7.6</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>H_SB_AR S02_St Beam-LG</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Steel Beam &amp; Girder</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>Q7.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr"/>
+      <c r="B59" t="inlineStr"/>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>7.7</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>H_SB_AR S02_St Beam-EL</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Steel Beam &amp; Girder</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>Q7.7</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr"/>
+      <c r="B60" t="inlineStr"/>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>7.8</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>H_SB_AR S02_St Beam-BH-EH</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Steel Built up Beam &amp; Girder</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>Q7.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr"/>
+      <c r="B61" t="inlineStr"/>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>7.9</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>H_SB_AR S02_St Beam-BH-HV</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Steel Built up Beam &amp; Girder</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>Q7.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr"/>
+      <c r="B62" t="inlineStr"/>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>H_SB_AR S02_PnG</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Steel Purlin &amp; Girth</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>Q7.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr"/>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>8.Ceilings</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr"/>
+      <c r="B64" t="inlineStr"/>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>8.1</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>H_CE_AR B09_Ceiling</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">*물량은 Room에서 산출 / 모델링시 Family 이름만 참조 </t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>Q8.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr"/>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>9.Doors</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr"/>
+      <c r="B66" t="inlineStr"/>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>9.1</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>H_DR_AR B12_Door</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>Q9.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr"/>
+      <c r="B67" t="inlineStr"/>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>9.2</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>H_WA_AR B02_Int Curtain Wall</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>Q9.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr"/>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>10.Windows</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr"/>
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>10.1</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>H_WD_AR B11_Window</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>Q10.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr"/>
+      <c r="B70" t="inlineStr"/>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>10.2</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>H_WD_AR B11_Louver</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>Q10.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr"/>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>11.Stairs</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr"/>
+      <c r="B72" t="inlineStr"/>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>11.1</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>H_SR_AR S09_St Stair</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>※WM 단위가 M. 길이계산 수동입력 or 개별 Sreel 부재로 산출</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>Q11.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr"/>
+      <c r="B73" t="inlineStr"/>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>11.2</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>H_SR_AR B08_Con Stair</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>※Conc Stair 별도 WM 없으므로, 
+개별 RC부재로 산출</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr"/>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>12.Railings</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr"/>
+      <c r="B75" t="inlineStr"/>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>12.1</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>H_RL_AR S10_Handrail</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>Q12.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr"/>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>13.Generic</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr"/>
+      <c r="B77" t="inlineStr"/>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>13.1</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>H_SC_AR S15_Grout</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>Q13.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr"/>
+      <c r="B78" t="inlineStr"/>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>13.2</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>H_GM_AR B07_Downspout</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>Q13.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr"/>
+      <c r="B79" t="inlineStr"/>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>13.3</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>H_GM_AR B07_Bollard</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>Q13.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr"/>
+      <c r="B80" t="inlineStr"/>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>13.4</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>H_GM_AR B07_Splash Block</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>Q13.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr"/>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>14.Manual_Input</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr">
+        <is>
           <t>*모델링 없이 수계산 산출할 경우</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr"/>
+      <c r="B82" t="inlineStr"/>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>14.1</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>H_GM_AR S08_Ladder</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>Q14.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr"/>
+      <c r="B83" t="inlineStr"/>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>14.2</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>H_GM_AR B07_Bollard</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>Q14.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr"/>
+      <c r="B84" t="inlineStr"/>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>14.3</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>H_GM_AR B07_Roof Drain</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>Q14.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr"/>
+      <c r="B85" t="inlineStr"/>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>14.4</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>H_GM_AR B07_Downspout</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>Q14.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr"/>
+      <c r="B86" t="inlineStr"/>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>14.5</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>H_MI_AR B07_Gutter</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>Q14.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr"/>
+      <c r="B87" t="inlineStr"/>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>14.6</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>H_GM_AR B07_Splash Block</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>Q14.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr"/>
+      <c r="B88" t="inlineStr"/>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>14.7</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>H_GM_AR_B07_Grout</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>*6.1 H_SC_AR S15_UG Ped에서 산출하지 않고, 
+수계산 산출할 경우</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>Q14.7</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr"/>
+      <c r="B89" t="inlineStr"/>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>14.8</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>H_MI_AR B07_Anchor Bolt</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>Q14.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr"/>
+      <c r="B90" t="inlineStr"/>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>14.9</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>H_MI_AR B07_Embedded Steel</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>Q14.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr"/>
+      <c r="B91" t="inlineStr"/>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>14.10</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>H_MI_AR B07_Signage</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr"/>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>Q14.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr"/>
+      <c r="B92" t="inlineStr"/>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>14.11</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>H_MI_AR B07_Toilet Accessories</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>Q14.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr"/>
+      <c r="B93" t="inlineStr"/>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>14.12</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>H_MI_AR B07_Septic Tank</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr"/>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>Q14.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr"/>
+      <c r="B94" t="inlineStr"/>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>14.13</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>H_MI_AR B07_Furniture</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>Q14.13</t>
         </is>
       </c>
     </row>
